--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,10 +142,10 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Received by</t>
+    <t>RCV</t>
+  </si>
+  <si>
+    <t>receiver</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationType</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
+++ b/ValueSet-SILPH-EncounterParticipantRoleVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
